--- a/tests/resources/test_dashboards_master.xlsx
+++ b/tests/resources/test_dashboards_master.xlsx
@@ -1996,6 +1996,21 @@
     <cfRule type="containsText" priority="30" operator="containsText" dxfId="4" text="A">
       <formula>NOT(ISERROR(SEARCH("A",o5)))</formula>
     </cfRule>
+    <cfRule type="containsText" priority="51" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",o5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="52" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",o5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="53" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",o5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="54" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",o5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="55" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",o5)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P60">
     <cfRule type="containsText" priority="6" operator="containsText" dxfId="0" text="A/G">
@@ -2028,6 +2043,21 @@
     <cfRule type="containsText" priority="35" operator="containsText" dxfId="4" text="A">
       <formula>NOT(ISERROR(SEARCH("A",p5)))</formula>
     </cfRule>
+    <cfRule type="containsText" priority="56" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",p5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="57" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",p5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="58" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",p5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="59" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",p5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="60" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",p5)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q60">
     <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="A/G">
@@ -2060,6 +2090,21 @@
     <cfRule type="containsText" priority="40" operator="containsText" dxfId="4" text="A">
       <formula>NOT(ISERROR(SEARCH("A",q5)))</formula>
     </cfRule>
+    <cfRule type="containsText" priority="61" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="62" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="63" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="64" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",q5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="65" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",q5)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R60">
     <cfRule type="containsText" priority="16" operator="containsText" dxfId="0" text="A/G">
@@ -2092,6 +2137,21 @@
     <cfRule type="containsText" priority="45" operator="containsText" dxfId="4" text="A">
       <formula>NOT(ISERROR(SEARCH("A",r5)))</formula>
     </cfRule>
+    <cfRule type="containsText" priority="66" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",r5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="67" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",r5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="68" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",r5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="69" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",r5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="70" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",r5)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S60">
     <cfRule type="containsText" priority="21" operator="containsText" dxfId="0" text="A/G">
@@ -2122,6 +2182,21 @@
       <formula>NOT(ISERROR(SEARCH("G",s5)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="50" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",s5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="71" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",s5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="72" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",s5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="73" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",s5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="74" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",s5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="75" operator="containsText" dxfId="4" text="A">
       <formula>NOT(ISERROR(SEARCH("A",s5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2447,8 +2522,14 @@
       </c>
       <c r="D7" s="71" t="n"/>
       <c r="E7" s="71" t="n"/>
-      <c r="F7" s="70" t="n"/>
-      <c r="G7" s="91" t="n"/>
+      <c r="F7" s="70" t="inlineStr">
+        <is>
+          <t>Tranquility Hypatia</t>
+        </is>
+      </c>
+      <c r="G7" s="91" t="n">
+        <v>44095</v>
+      </c>
       <c r="H7" s="92" t="n"/>
       <c r="I7" s="92" t="n"/>
       <c r="J7" s="93" t="n"/>
@@ -2463,11 +2544,19 @@
       <c r="S7" s="91" t="n"/>
       <c r="T7" s="94" t="n"/>
       <c r="U7" s="94" t="n"/>
-      <c r="V7" s="71" t="n"/>
-      <c r="W7" s="71" t="n"/>
-      <c r="X7" s="71" t="n"/>
-      <c r="Y7" s="71" t="n"/>
-      <c r="Z7" s="71" t="n"/>
+      <c r="V7" s="71" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="W7" s="71" t="inlineStr"/>
+      <c r="X7" s="71" t="inlineStr"/>
+      <c r="Y7" s="71" t="inlineStr"/>
+      <c r="Z7" s="71" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="36" customHeight="1" s="59">
       <c r="B8" s="73" t="n"/>
@@ -2478,8 +2567,14 @@
       </c>
       <c r="D8" s="71" t="n"/>
       <c r="E8" s="71" t="n"/>
-      <c r="F8" s="70" t="n"/>
-      <c r="G8" s="91" t="n"/>
+      <c r="F8" s="70" t="inlineStr">
+        <is>
+          <t>Inverted Cosmonauts</t>
+        </is>
+      </c>
+      <c r="G8" s="91" t="n">
+        <v>41537</v>
+      </c>
       <c r="H8" s="92" t="n"/>
       <c r="I8" s="92" t="n"/>
       <c r="J8" s="93" t="n"/>
@@ -2494,11 +2589,15 @@
       <c r="S8" s="91" t="n"/>
       <c r="T8" s="94" t="n"/>
       <c r="U8" s="94" t="n"/>
-      <c r="V8" s="71" t="n"/>
-      <c r="W8" s="71" t="n"/>
-      <c r="X8" s="71" t="n"/>
-      <c r="Y8" s="71" t="n"/>
-      <c r="Z8" s="71" t="n"/>
+      <c r="V8" s="71" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="71" t="inlineStr"/>
+      <c r="X8" s="71" t="inlineStr"/>
+      <c r="Y8" s="71" t="inlineStr"/>
+      <c r="Z8" s="71" t="inlineStr"/>
     </row>
     <row r="9" ht="36" customHeight="1" s="59">
       <c r="B9" s="73" t="n"/>
@@ -2509,8 +2608,14 @@
       </c>
       <c r="D9" s="71" t="n"/>
       <c r="E9" s="71" t="n"/>
-      <c r="F9" s="70" t="n"/>
-      <c r="G9" s="91" t="n"/>
+      <c r="F9" s="70" t="inlineStr">
+        <is>
+          <t>Space Command</t>
+        </is>
+      </c>
+      <c r="G9" s="91" t="n">
+        <v>39081</v>
+      </c>
       <c r="H9" s="92" t="n"/>
       <c r="I9" s="92" t="n"/>
       <c r="J9" s="93" t="n"/>
@@ -2525,11 +2630,15 @@
       <c r="S9" s="91" t="n"/>
       <c r="T9" s="94" t="n"/>
       <c r="U9" s="94" t="n"/>
-      <c r="V9" s="71" t="n"/>
-      <c r="W9" s="71" t="n"/>
-      <c r="X9" s="71" t="n"/>
-      <c r="Y9" s="71" t="n"/>
-      <c r="Z9" s="71" t="n"/>
+      <c r="V9" s="71" t="inlineStr">
+        <is>
+          <t>A/R</t>
+        </is>
+      </c>
+      <c r="W9" s="71" t="inlineStr"/>
+      <c r="X9" s="71" t="inlineStr"/>
+      <c r="Y9" s="71" t="inlineStr"/>
+      <c r="Z9" s="71" t="inlineStr"/>
     </row>
     <row r="10" ht="36" customHeight="1" s="59">
       <c r="B10" s="73" t="n"/>
@@ -2540,8 +2649,14 @@
       </c>
       <c r="D10" s="71" t="n"/>
       <c r="E10" s="71" t="n"/>
-      <c r="F10" s="70" t="n"/>
-      <c r="G10" s="91" t="n"/>
+      <c r="F10" s="70" t="inlineStr">
+        <is>
+          <t>Earth Command</t>
+        </is>
+      </c>
+      <c r="G10" s="91" t="n">
+        <v>42305</v>
+      </c>
       <c r="H10" s="92" t="n"/>
       <c r="I10" s="92" t="n"/>
       <c r="J10" s="93" t="n"/>
@@ -2556,11 +2671,15 @@
       <c r="S10" s="91" t="n"/>
       <c r="T10" s="94" t="n"/>
       <c r="U10" s="94" t="n"/>
-      <c r="V10" s="71" t="n"/>
-      <c r="W10" s="71" t="n"/>
-      <c r="X10" s="71" t="n"/>
-      <c r="Y10" s="71" t="n"/>
-      <c r="Z10" s="71" t="n"/>
+      <c r="V10" s="71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="W10" s="71" t="inlineStr"/>
+      <c r="X10" s="71" t="inlineStr"/>
+      <c r="Y10" s="71" t="inlineStr"/>
+      <c r="Z10" s="71" t="inlineStr"/>
     </row>
     <row r="11" ht="36" customHeight="1" s="59">
       <c r="B11" s="73" t="n"/>
@@ -2571,8 +2690,14 @@
       </c>
       <c r="D11" s="71" t="n"/>
       <c r="E11" s="71" t="n"/>
-      <c r="F11" s="70" t="n"/>
-      <c r="G11" s="91" t="n"/>
+      <c r="F11" s="70" t="inlineStr">
+        <is>
+          <t>Team Magma</t>
+        </is>
+      </c>
+      <c r="G11" s="91" t="n">
+        <v>42308</v>
+      </c>
       <c r="H11" s="92" t="n"/>
       <c r="I11" s="92" t="n"/>
       <c r="J11" s="93" t="n"/>
@@ -2587,11 +2712,15 @@
       <c r="S11" s="91" t="n"/>
       <c r="T11" s="94" t="n"/>
       <c r="U11" s="94" t="n"/>
-      <c r="V11" s="71" t="n"/>
-      <c r="W11" s="71" t="n"/>
-      <c r="X11" s="71" t="n"/>
-      <c r="Y11" s="71" t="n"/>
-      <c r="Z11" s="71" t="n"/>
+      <c r="V11" s="71" t="inlineStr">
+        <is>
+          <t>A/G</t>
+        </is>
+      </c>
+      <c r="W11" s="71" t="inlineStr"/>
+      <c r="X11" s="71" t="inlineStr"/>
+      <c r="Y11" s="71" t="inlineStr"/>
+      <c r="Z11" s="71" t="inlineStr"/>
     </row>
     <row r="12" ht="36" customHeight="1" s="59">
       <c r="B12" s="73" t="n"/>
@@ -3464,6 +3593,91 @@
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B30:B42"/>
   </mergeCells>
+  <conditionalFormatting sqref="V5:V60">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",v5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",v5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",v5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",v5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",v5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5:W60">
+    <cfRule type="containsText" priority="6" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",w5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="7" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",w5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="8" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",w5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="9" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",w5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="10" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",w5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5:X60">
+    <cfRule type="containsText" priority="11" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",x5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="12" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",x5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="13" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",x5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="14" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",x5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="15" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",x5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:Y60">
+    <cfRule type="containsText" priority="16" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="17" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="18" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="19" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",y5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="20" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",y5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z60">
+    <cfRule type="containsText" priority="21" operator="containsText" dxfId="0" text="A/G">
+      <formula>NOT(ISERROR(SEARCH("A/G",z5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="22" operator="containsText" dxfId="1" text="A/R">
+      <formula>NOT(ISERROR(SEARCH("A/R",z5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="23" operator="containsText" dxfId="2" text="R">
+      <formula>NOT(ISERROR(SEARCH("R",z5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="24" operator="containsText" dxfId="3" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",z5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="25" operator="containsText" dxfId="4" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",z5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="landscape" paperSize="8" scale="100" fitToHeight="0" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
